--- a/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
+++ b/InputData/bldgs/EoBSDwEC/Elast of Bldg Svc Demand wrt E Cost.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deept\Dropbox\EPS\Input Data for India 2.0\bldgs\EoBSDwEC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E50E48A-5001-4B0D-BE7C-1ACD0D3516B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="140" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="EoBSDwEC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>EoBSDwEC Elasticity of Building Service Demand wrt Energy Cost</t>
   </si>
@@ -47,9 +61,6 @@
     <t>rather than equipment change in the model.</t>
   </si>
   <si>
-    <t>Fuel</t>
-  </si>
-  <si>
     <t>electricity</t>
   </si>
   <si>
@@ -93,12 +104,63 @@
   </si>
   <si>
     <t>biomass</t>
+  </si>
+  <si>
+    <t>Elasticity by Fuel (dimensionless)</t>
+  </si>
+  <si>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The high elasticities in developing countries where consumption is constrained by distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">US values are retained. </t>
+  </si>
+  <si>
+    <t>The review of India-specific studies is listed as a source for reference.</t>
+  </si>
+  <si>
+    <t>Review of Key International Demand Elasticities for Major Industrializing Economies</t>
+  </si>
+  <si>
+    <t>Energy Modeling Forum, Stanford University</t>
+  </si>
+  <si>
+    <t>Huntington et. al</t>
+  </si>
+  <si>
+    <t>https://web.stanford.edu/group/emf-research/docs/special_reports/EMF_SR12.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and other systemic factors (such as price distortions due to subsidies) could indicate </t>
+  </si>
+  <si>
+    <t>Hence the India-specific elasticities are not considered within this variable and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(of the order of -0.41 (diesel), -0.65 (electricity) and -1.25 (natural gas)). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A few estimates are available for fuels in India. However, they indicate a high price elasticity  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">changes in policy to expand infrastructure/access, rather than change in end-user behaviour. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,12 +186,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -155,6 +223,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -165,6 +237,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -213,7 +288,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,9 +321,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,6 +373,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,75 +565,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2015</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -536,55 +672,100 @@
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{8EC35FCC-D083-49D1-A161-BB9ACB23D295}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>5</v>
@@ -592,7 +773,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>-0.3</v>
@@ -606,7 +787,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>-0.15</v>
@@ -620,7 +801,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>-0.15</v>
@@ -634,7 +815,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>-0.15</v>
@@ -648,7 +829,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>-0.15</v>
@@ -660,9 +841,9 @@
         <v>-0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7">
         <v>-0.15</v>
@@ -671,6 +852,62 @@
         <v>-0.15</v>
       </c>
       <c r="D7">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>-0.15</v>
+      </c>
+      <c r="C8">
+        <v>-0.15</v>
+      </c>
+      <c r="D8">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>-0.15</v>
+      </c>
+      <c r="C9">
+        <v>-0.15</v>
+      </c>
+      <c r="D9">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>-0.15</v>
+      </c>
+      <c r="C10">
+        <v>-0.15</v>
+      </c>
+      <c r="D10">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>-0.15</v>
+      </c>
+      <c r="C11">
+        <v>-0.15</v>
+      </c>
+      <c r="D11">
         <v>-0.25</v>
       </c>
     </row>
